--- a/biology/Botanique/Bénédicte_Seguin/Bénédicte_Seguin.xlsx
+++ b/biology/Botanique/Bénédicte_Seguin/Bénédicte_Seguin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dicte_Seguin</t>
+          <t>Bénédicte_Seguin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-‘Bénédicte Seguin’ est un cultivar de rosier obtenu en 1918 par le rosiériste lyonnais Joseph Pernet-Ducher[1] qui fait partie de la longue série des descendants de Rosa foetida créés par ce fameux obtenteur, à la recherche d'une rose jaune idéale.
+‘Bénédicte Seguin’ est un cultivar de rosier obtenu en 1918 par le rosiériste lyonnais Joseph Pernet-Ducher qui fait partie de la longue série des descendants de Rosa foetida créés par ce fameux obtenteur, à la recherche d'une rose jaune idéale.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9n%C3%A9dicte_Seguin</t>
+          <t>Bénédicte_Seguin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet hybride de thé présente de grandes fleurs en coupes pleines (26-40 pétales) de couleur jaune aux reflets cuivrés. Elles sont légèrement parfumées et fleurissent jusqu'aux premières gelées[2].
-Son buisson érigé se dresse jusqu'à 120 cm avec un feuillage vert bronze. Cette variété résiste au froid (-20°)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet hybride de thé présente de grandes fleurs en coupes pleines (26-40 pétales) de couleur jaune aux reflets cuivrés. Elles sont légèrement parfumées et fleurissent jusqu'aux premières gelées.
+Son buisson érigé se dresse jusqu'à 120 cm avec un feuillage vert bronze. Cette variété résiste au froid (-20°).
 Elle a donné naissance à ‘Angèle Pernet’ (Pernet-Ducher, 1924). Elle n'est presque plus commercialisée. On peut l'admirer à l'Europa-Rosarium de Sangerhausen.
 </t>
         </is>
